--- a/01_alluminio_frattale/raw_data/01_alluminio_frattale_raw.xlsx
+++ b/01_alluminio_frattale/raw_data/01_alluminio_frattale_raw.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9aa7d395ec58982d/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\[Università]\[Laurea Magistrale]\[Primo Anno]\Scientific data acquisition and processing\Data Analysis\Lab_Sc_data_acquisition\Lab_Sc_data_acquisition\01_alluminio_frattale\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="8_{B3AB544F-F4F5-47EB-BED9-28A805E33710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5CCD274-E889-48EE-9F57-B97520AE2758}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD3D58B-B0C6-4449-96D6-9A8BA9920875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F23CBE7-2062-4926-9ABF-02CDC9F0CDBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6F23CBE7-2062-4926-9ABF-02CDC9F0CDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Part I" sheetId="1" r:id="rId1"/>
     <sheet name="Part 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Report tables" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Square</t>
   </si>
@@ -120,9 +121,6 @@
     <t>cm</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Mean Length</t>
   </si>
   <si>
@@ -169,6 +167,39 @@
   </si>
   <si>
     <t>Error Mass</t>
+  </si>
+  <si>
+    <t>ln(L)</t>
+  </si>
+  <si>
+    <t>Δln(L)</t>
+  </si>
+  <si>
+    <t>ln(m)</t>
+  </si>
+  <si>
+    <t>Δln(m)</t>
+  </si>
+  <si>
+    <t>Length (1) (cm)</t>
+  </si>
+  <si>
+    <t>Length (2) (cm)</t>
+  </si>
+  <si>
+    <t>Length (3) (cm)</t>
+  </si>
+  <si>
+    <t>Length (4) (cm)</t>
+  </si>
+  <si>
+    <t>Length (5) (cm)</t>
+  </si>
+  <si>
+    <t>Length (6) (cm)</t>
+  </si>
+  <si>
+    <t>Mean Length (cm)</t>
   </si>
 </sst>
 </file>
@@ -179,7 +210,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +226,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +250,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,6 +333,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -298,954 +361,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Part I'!$H$2:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>29.016666666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.016666666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.016666666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.016666666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.9833333333333334</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Part I'!$M$2:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.7966666666666669</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.40000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE09-4583-9C36-1FA2A0E56F76}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="574811583"/>
-        <c:axId val="574811103"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="574811583"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="574811103"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="574811103"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="574811583"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB4F706-0D44-AE42-E639-38BB100B3416}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1565,26 +680,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC81585-ECBD-463A-AE73-BC0CB2AFD19F}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="7" width="12.7109375" customWidth="1"/>
+    <col min="2" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.140625" customWidth="1"/>
     <col min="10" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
     <col min="14" max="14" width="17.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="15" max="15" width="20.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="11" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1607,10 +727,10 @@
         <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>22</v>
@@ -1622,13 +742,25 @@
         <v>9</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1655,7 +787,7 @@
         <v>29.016666666666666</v>
       </c>
       <c r="I2" s="2">
-        <f>_xlfn.STDEV.S(B2:G2)</f>
+        <f t="shared" ref="I2:I9" si="0">STDEV(B2:G2)</f>
         <v>4.0824829046386887E-2</v>
       </c>
       <c r="J2" s="6">
@@ -1675,14 +807,26 @@
         <f>_xlfn.STDEV.S(J2:L2)</f>
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="O2" s="2">
+        <f>LN(H2)</f>
+        <v>3.3678703775460885</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="2">
+        <f>LN(M2)</f>
+        <v>1.0284282318110052</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="1">
+      <c r="W2" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X2" s="10"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1705,11 +849,11 @@
         <v>25.9</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H12" si="0">AVERAGE(B3:G3)</f>
+        <f t="shared" ref="H3:H11" si="1">AVERAGE(B3:G3)</f>
         <v>26.016666666666666</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I12" si="1">_xlfn.STDEV.S(B3:G3)</f>
+        <f t="shared" si="0"/>
         <v>7.527726527090918E-2</v>
       </c>
       <c r="J3" s="6">
@@ -1726,17 +870,28 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" ref="N3:N11" si="3">_xlfn.STDEV.S(J3:L3)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+        <v>0.01</v>
+      </c>
+      <c r="O3" s="2">
+        <f>LN(H3)</f>
+        <v>3.2587373582933314</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="2">
+        <f t="shared" ref="Q3:Q11" si="3">LN(M3)</f>
+        <v>0.82417544296634937</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="1">
+      <c r="W3" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X3" s="10"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1759,12 +914,11 @@
         <v>23</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I4" s="2">
-        <f>_xlfn.STDEV.S(B4:G4)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J4" s="6">
         <v>1.77</v>
@@ -1776,15 +930,29 @@
         <v>1.77</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(J4:L4)</f>
         <v>1.7700000000000002</v>
       </c>
       <c r="N4" s="2">
+        <f>_xlfn.STDEV.S(J4:L4)</f>
+        <v>2.7194799110210365E-16</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O11" si="4">LN(H4)</f>
+        <v>3.1354942159291497</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="2">
         <f t="shared" si="3"/>
-        <v>2.7194799110210365E-16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.57097954658573791</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="10"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1807,11 +975,11 @@
         <v>20.100000000000001</v>
       </c>
       <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>20.016666666666666</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>20.016666666666666</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="1"/>
         <v>4.0824829046386887E-2</v>
       </c>
       <c r="J5" s="6">
@@ -1828,17 +996,28 @@
         <v>1.34</v>
       </c>
       <c r="N5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="4"/>
+        <v>2.9965652598578827</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+        <v>0.29266961396282004</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X5" s="10"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1861,11 +1040,11 @@
         <v>17</v>
       </c>
       <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>17.016666666666666</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>17.016666666666666</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="1"/>
         <v>4.0824829046386887E-2</v>
       </c>
       <c r="J6" s="6">
@@ -1885,14 +1064,26 @@
         <f>_xlfn.STDEV.S(J6:L6)</f>
         <v>1.3597399555105182E-16</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="O6" s="2">
+        <f t="shared" si="4"/>
+        <v>2.8341932559425649</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="2">
+        <f>LN(M6)</f>
+        <v>-3.0459207484708459E-2</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X6" s="10"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1915,11 +1106,11 @@
         <v>14.1</v>
       </c>
       <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="1"/>
         <v>6.3245553203367361E-2</v>
       </c>
       <c r="J7" s="6">
@@ -1936,11 +1127,21 @@
         <v>0.66</v>
       </c>
       <c r="N7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="4"/>
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-0.41551544396166579</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="X7" s="10"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1963,12 +1164,11 @@
         <v>11</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J8" s="6">
         <v>0.4</v>
@@ -1980,15 +1180,26 @@
         <v>0.4</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(J8:L8)</f>
         <v>0.40000000000000008</v>
       </c>
       <c r="N8" s="2">
+        <f>_xlfn.STDEV.S(J8:L8)</f>
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="2">
         <f t="shared" si="3"/>
-        <v>6.7986997775525911E-17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-0.91629073187415488</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="X8" s="10"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -2011,11 +1222,11 @@
         <v>8</v>
       </c>
       <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9833333333333334</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>7.9833333333333334</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="1"/>
         <v>4.0824829046386159E-2</v>
       </c>
       <c r="J9" s="6">
@@ -2032,11 +1243,21 @@
         <v>0.21</v>
       </c>
       <c r="N9" s="2">
-        <f>_xlfn.STDEV.S(J9:L9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0773560351888145</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.5606477482646683</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="X9" s="10"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -2059,12 +1280,11 @@
         <v>5</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J10" s="6">
         <v>0.08</v>
@@ -2080,11 +1300,24 @@
         <v>0.08</v>
       </c>
       <c r="N10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-2.5257286443082556</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -2107,12 +1340,11 @@
         <v>3</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J11" s="6">
         <v>0.02</v>
@@ -2128,56 +1360,35 @@
         <v>0.02</v>
       </c>
       <c r="N11" s="9">
-        <f>_xlfn.STDEV.S(J11:L11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.912023005428146</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="N12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="M4:N4 M8:N8 M10:M11" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2206,34 +1417,34 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -2267,10 +1478,10 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2333,7 +1544,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4" s="1">
         <v>1E-3</v>
@@ -2546,4 +1757,326 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8E49ED-C56F-46B9-81BB-557F9F1DED55}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13">
+        <v>29</v>
+      </c>
+      <c r="C2" s="13">
+        <v>29</v>
+      </c>
+      <c r="D2" s="13">
+        <v>29</v>
+      </c>
+      <c r="E2" s="13">
+        <v>29.1</v>
+      </c>
+      <c r="F2" s="13">
+        <v>29</v>
+      </c>
+      <c r="G2" s="13">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3">
+        <f>AVERAGE(B2:G2)</f>
+        <v>29.016666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13">
+        <v>26</v>
+      </c>
+      <c r="C3" s="13">
+        <v>26</v>
+      </c>
+      <c r="D3" s="13">
+        <v>26</v>
+      </c>
+      <c r="E3" s="13">
+        <v>26.1</v>
+      </c>
+      <c r="F3" s="13">
+        <v>26.1</v>
+      </c>
+      <c r="G3" s="13">
+        <v>25.9</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H11" si="0">AVERAGE(B3:G3)</f>
+        <v>26.016666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13">
+        <v>23</v>
+      </c>
+      <c r="C4" s="13">
+        <v>23</v>
+      </c>
+      <c r="D4" s="13">
+        <v>23</v>
+      </c>
+      <c r="E4" s="13">
+        <v>23</v>
+      </c>
+      <c r="F4" s="13">
+        <v>23</v>
+      </c>
+      <c r="G4" s="13">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13">
+        <v>20</v>
+      </c>
+      <c r="C5" s="13">
+        <v>20</v>
+      </c>
+      <c r="D5" s="13">
+        <v>20</v>
+      </c>
+      <c r="E5" s="13">
+        <v>20</v>
+      </c>
+      <c r="F5" s="13">
+        <v>20</v>
+      </c>
+      <c r="G5" s="13">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>20.016666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13">
+        <v>17</v>
+      </c>
+      <c r="C6" s="13">
+        <v>17</v>
+      </c>
+      <c r="D6" s="13">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E6" s="13">
+        <v>17</v>
+      </c>
+      <c r="F6" s="13">
+        <v>17</v>
+      </c>
+      <c r="G6" s="13">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>17.016666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13">
+        <v>13.9</v>
+      </c>
+      <c r="C7" s="13">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13">
+        <v>14</v>
+      </c>
+      <c r="E7" s="13">
+        <v>14</v>
+      </c>
+      <c r="F7" s="13">
+        <v>14</v>
+      </c>
+      <c r="G7" s="13">
+        <v>14.1</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13">
+        <v>11</v>
+      </c>
+      <c r="C8" s="13">
+        <v>11</v>
+      </c>
+      <c r="D8" s="13">
+        <v>11</v>
+      </c>
+      <c r="E8" s="13">
+        <v>11</v>
+      </c>
+      <c r="F8" s="13">
+        <v>11</v>
+      </c>
+      <c r="G8" s="13">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="C9" s="13">
+        <v>8</v>
+      </c>
+      <c r="D9" s="13">
+        <v>8</v>
+      </c>
+      <c r="E9" s="13">
+        <v>8</v>
+      </c>
+      <c r="F9" s="13">
+        <v>8</v>
+      </c>
+      <c r="G9" s="13">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>7.9833333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="13">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13">
+        <v>5</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="13">
+        <v>5</v>
+      </c>
+      <c r="G10" s="13">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13">
+        <v>3</v>
+      </c>
+      <c r="D11" s="13">
+        <v>3</v>
+      </c>
+      <c r="E11" s="13">
+        <v>3</v>
+      </c>
+      <c r="F11" s="13">
+        <v>3</v>
+      </c>
+      <c r="G11" s="13">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/01_alluminio_frattale/raw_data/01_alluminio_frattale_raw.xlsx
+++ b/01_alluminio_frattale/raw_data/01_alluminio_frattale_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\[Università]\[Laurea Magistrale]\[Primo Anno]\Scientific data acquisition and processing\Data Analysis\Lab_Sc_data_acquisition\Lab_Sc_data_acquisition\01_alluminio_frattale\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9771C6FE-B808-4781-84B3-1F1F2A3DF51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C538CAC0-C896-415B-8319-62DC90C88E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6F23CBE7-2062-4926-9ABF-02CDC9F0CDBD}"/>
+    <workbookView xWindow="345" yWindow="2940" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{6F23CBE7-2062-4926-9ABF-02CDC9F0CDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Part I" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>Square</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>Error Diameter</t>
+  </si>
+  <si>
+    <t>ln(D)</t>
+  </si>
+  <si>
+    <t>Δln(D)</t>
   </si>
 </sst>
 </file>
@@ -325,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,6 +371,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -703,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC81585-ECBD-463A-AE73-BC0CB2AFD19F}">
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R11"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,8 +850,8 @@
         <v>1.0284282318110052</v>
       </c>
       <c r="R2" s="1">
-        <f>ABS(M2)*N2</f>
-        <v>1.614656252833619E-2</v>
+        <f>ABS(1/M2)*N2</f>
+        <v>2.0644228934074381E-3</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="1" t="s">
@@ -912,8 +921,8 @@
         <v>0.82417544296634937</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R11" si="5">ABS(M3)*N3</f>
-        <v>2.2799999999999997E-2</v>
+        <f t="shared" ref="R3:R11" si="5">ABS(1/M3)*N3</f>
+        <v>4.3859649122807024E-3</v>
       </c>
       <c r="U3" s="8"/>
       <c r="V3" s="1" t="s">
@@ -984,7 +993,7 @@
       </c>
       <c r="R4" s="1">
         <f t="shared" si="5"/>
-        <v>4.8134794425072354E-16</v>
+        <v>1.5364293282604724E-16</v>
       </c>
       <c r="U4" s="8"/>
       <c r="V4" s="1"/>
@@ -1051,7 +1060,7 @@
       </c>
       <c r="R5" s="1">
         <f t="shared" si="5"/>
-        <v>1.34E-2</v>
+        <v>7.462686567164179E-3</v>
       </c>
       <c r="U5" s="8"/>
       <c r="V5" s="1" t="s">
@@ -1114,7 +1123,7 @@
         <v>2.8341932559425649</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="3"/>
+        <f>ABS(1/H6)*I6</f>
         <v>2.3991084650178385E-3</v>
       </c>
       <c r="Q6" s="2">
@@ -1123,7 +1132,7 @@
       </c>
       <c r="R6" s="1">
         <f t="shared" si="5"/>
-        <v>1.3189477568452028E-16</v>
+        <v>1.4017937685675444E-16</v>
       </c>
       <c r="U6" s="8"/>
       <c r="V6" s="1" t="s">
@@ -1194,7 +1203,7 @@
       </c>
       <c r="R7" s="1">
         <f t="shared" si="5"/>
-        <v>6.6000000000000008E-3</v>
+        <v>1.5151515151515152E-2</v>
       </c>
       <c r="X7" s="8"/>
     </row>
@@ -1258,7 +1267,7 @@
       </c>
       <c r="R8" s="1">
         <f t="shared" si="5"/>
-        <v>2.7194799110210369E-17</v>
+        <v>1.6996749443881474E-16</v>
       </c>
       <c r="X8" s="8"/>
     </row>
@@ -1322,7 +1331,7 @@
       </c>
       <c r="R9" s="1">
         <f t="shared" si="5"/>
-        <v>2.0999999999999999E-3</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="X9" s="8"/>
     </row>
@@ -1385,7 +1394,7 @@
       </c>
       <c r="R10" s="1">
         <f t="shared" si="5"/>
-        <v>8.0000000000000004E-4</v>
+        <v>0.125</v>
       </c>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
@@ -1451,7 +1460,7 @@
       </c>
       <c r="R11" s="1">
         <f t="shared" si="5"/>
-        <v>2.0000000000000001E-4</v>
+        <v>0.5</v>
       </c>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
@@ -1475,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A541D4-8B0E-48D8-9A1A-4668EF171BE1}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,12 +1501,14 @@
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
@@ -1525,16 +1536,22 @@
       <c r="I1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -1564,16 +1581,24 @@
         <f>_xlfn.STDEV.S(B2:G2)</f>
         <v>0.90262764563615416</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="J2" s="2">
+        <f>LN(H2)</f>
+        <v>3.5652512436591999</v>
+      </c>
+      <c r="K2" s="2">
+        <f>ABS(1/J2)*I2</f>
+        <v>0.25317364301926198</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -1603,12 +1628,20 @@
         <f t="shared" ref="I3:I11" si="0">_xlfn.STDEV.S(B3:G3)</f>
         <v>0.88078941864670424</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J11" si="1">LN(H3)</f>
+        <v>3.375708618894989</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K11" si="2">ABS(1/J3)*I3</f>
+        <v>0.26091985952716013</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1631,23 +1664,31 @@
         <v>25.474</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H12" si="1">AVERAGE(B4:G4)</f>
+        <f t="shared" ref="H4:H11" si="3">AVERAGE(B4:G4)</f>
         <v>25.852333333333331</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>0.32683431072435815</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2524008612264406</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10049016854617143</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
@@ -1670,15 +1711,23 @@
         <v>23.863</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23.304000000000002</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>1.3190805888951598</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1486250196571337</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.41893860992021204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -1701,15 +1750,23 @@
         <v>21.376999999999999</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.239833333333333</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>1.1770188472011256</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0076526098662568</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.39134135482936133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
@@ -1732,15 +1789,23 @@
         <v>18.878</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18.169666666666664</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>0.71970540269381578</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8997535369820526</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24819537023234614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
@@ -1763,15 +1828,23 @@
         <v>15.621</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.950333333333333</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>0.82366295695913538</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7047335961321668</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.30452646358110569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
@@ -1794,15 +1867,23 @@
         <v>11.065</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(B9:G9)</f>
         <v>10.642833333333334</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>0.38614060478880829</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3648867391912329</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16328080258121133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
@@ -1825,15 +1906,23 @@
         <v>7.9729999999999999</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5350000000000001</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>0.30514062331980629</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>2.019558832078459</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15109271315744058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
@@ -1856,15 +1945,23 @@
         <v>2.8260000000000001</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(B11:G11)</f>
         <v>3.1171666666666664</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>0.21221820531393307</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>1.136924469572808</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.18665989781508766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>

--- a/01_alluminio_frattale/raw_data/01_alluminio_frattale_raw.xlsx
+++ b/01_alluminio_frattale/raw_data/01_alluminio_frattale_raw.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\[Università]\[Laurea Magistrale]\[Primo Anno]\Scientific data acquisition and processing\Data Analysis\Lab_Sc_data_acquisition\Lab_Sc_data_acquisition\01_alluminio_frattale\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C538CAC0-C896-415B-8319-62DC90C88E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2AD87D-3EF1-463B-9094-EB8AA15706CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2940" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{6F23CBE7-2062-4926-9ABF-02CDC9F0CDBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F23CBE7-2062-4926-9ABF-02CDC9F0CDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Part I" sheetId="1" r:id="rId1"/>
     <sheet name="Part II" sheetId="2" r:id="rId2"/>
-    <sheet name="Report tables" sheetId="3" r:id="rId3"/>
+    <sheet name="Report Table 1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>Square</t>
   </si>
@@ -196,28 +196,7 @@
     <t>Mean Length (cm)</t>
   </si>
   <si>
-    <t>Diameter (1) (cm)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Diameter (2) </t>
-  </si>
-  <si>
-    <t>Diameter (2) (cm)</t>
-  </si>
-  <si>
-    <t>Diameter (3) (cm)</t>
-  </si>
-  <si>
-    <t>Diameter (6) (cm)</t>
-  </si>
-  <si>
-    <t>Diameter (5) (cm)</t>
-  </si>
-  <si>
-    <t>Diameter (4) (cm)</t>
-  </si>
-  <si>
-    <t>Mean Diameter (cm)</t>
   </si>
   <si>
     <t>Error Diameter</t>
@@ -233,9 +212,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -331,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,9 +329,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -375,6 +352,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC81585-ECBD-463A-AE73-BC0CB2AFD19F}">
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,8 +715,8 @@
     <col min="10" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
     <col min="14" max="14" width="17.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="9" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25" style="8" customWidth="1"/>
     <col min="17" max="17" width="21.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="13.28515625" style="1" customWidth="1"/>
     <col min="22" max="22" width="15.28515625" customWidth="1"/>
@@ -780,13 +769,13 @@
       <c r="O1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>42</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -817,8 +806,8 @@
         <v>29.016666666666666</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I9" si="0">STDEV(B2:G2)</f>
-        <v>4.0824829046386887E-2</v>
+        <f>SQRT(STDEV(B2:G2)*STDEV(B2:G2) + 0.1*0.1)</f>
+        <v>0.10801234497346457</v>
       </c>
       <c r="J2" s="6">
         <v>2.8</v>
@@ -833,9 +822,9 @@
         <f>AVERAGE(J2:L2)</f>
         <v>2.7966666666666669</v>
       </c>
-      <c r="N2" s="2">
-        <f>_xlfn.STDEV.S(J2:L2)</f>
-        <v>5.7735026918961348E-3</v>
+      <c r="N2" s="17">
+        <f>SQRT(STDEV(J2:L2)*STDEV(J2:L2) + 0.01*0.01)</f>
+        <v>1.1547005383792455E-2</v>
       </c>
       <c r="O2" s="2">
         <f>LN(H2)</f>
@@ -843,7 +832,7 @@
       </c>
       <c r="P2" s="1">
         <f>ABS(1/H2)*I2</f>
-        <v>1.4069441371529082E-3</v>
+        <v>3.7224242954669007E-3</v>
       </c>
       <c r="Q2" s="2">
         <f>LN(M2)</f>
@@ -851,16 +840,16 @@
       </c>
       <c r="R2" s="1">
         <f>ABS(1/M2)*N2</f>
-        <v>2.0644228934074381E-3</v>
-      </c>
-      <c r="U2" s="8"/>
+        <v>4.1288457868149421E-3</v>
+      </c>
+      <c r="U2" s="7"/>
       <c r="V2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="W2" s="1">
         <v>0.01</v>
       </c>
-      <c r="X2" s="8"/>
+      <c r="X2" s="7"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -885,12 +874,12 @@
         <v>25.9</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H11" si="1">AVERAGE(B3:G3)</f>
+        <f t="shared" ref="H3:H11" si="0">AVERAGE(B3:G3)</f>
         <v>26.016666666666666</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="0"/>
-        <v>7.527726527090918E-2</v>
+        <f>SQRT(STDEV(B3:G3)*STDEV(B3:G3) + 0.1*0.1)</f>
+        <v>0.12516655570345792</v>
       </c>
       <c r="J3" s="6">
         <v>2.2799999999999998</v>
@@ -902,10 +891,11 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M11" si="2">AVERAGE(J3:L3)</f>
+        <f t="shared" ref="M3:M11" si="1">AVERAGE(J3:L3)</f>
         <v>2.2799999999999998</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="17">
+        <f t="shared" ref="N3:N11" si="2">SQRT(STDEV(J3:L3)*STDEV(J3:L3) + 0.01*0.01)</f>
         <v>0.01</v>
       </c>
       <c r="O3" s="2">
@@ -914,7 +904,7 @@
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:P11" si="3">ABS(1/H3)*I3</f>
-        <v>2.8934246740900389E-3</v>
+        <v>4.8110143127530272E-3</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q11" si="4">LN(M3)</f>
@@ -924,14 +914,14 @@
         <f t="shared" ref="R3:R11" si="5">ABS(1/M3)*N3</f>
         <v>4.3859649122807024E-3</v>
       </c>
-      <c r="U3" s="8"/>
+      <c r="U3" s="7"/>
       <c r="V3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="W3" s="1">
         <v>0.01</v>
       </c>
-      <c r="X3" s="8"/>
+      <c r="X3" s="7"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -956,11 +946,12 @@
         <v>23</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="I4" s="2">
-        <v>0.01</v>
+        <f>SQRT(STDEV(B4:G4)*STDEV(B4:G4) + 0.1*0.1)</f>
+        <v>0.1</v>
       </c>
       <c r="J4" s="6">
         <v>1.77</v>
@@ -975,9 +966,9 @@
         <f>AVERAGE(J4:L4)</f>
         <v>1.7700000000000002</v>
       </c>
-      <c r="N4" s="2">
-        <f>_xlfn.STDEV.S(J4:L4)</f>
-        <v>2.7194799110210365E-16</v>
+      <c r="N4" s="17">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" ref="O4:O11" si="6">LN(H4)</f>
@@ -985,7 +976,7 @@
       </c>
       <c r="P4" s="1">
         <f t="shared" si="3"/>
-        <v>4.3478260869565219E-4</v>
+        <v>4.3478260869565218E-3</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="4"/>
@@ -993,12 +984,12 @@
       </c>
       <c r="R4" s="1">
         <f t="shared" si="5"/>
-        <v>1.5364293282604724E-16</v>
-      </c>
-      <c r="U4" s="8"/>
+        <v>5.6497175141242929E-3</v>
+      </c>
+      <c r="U4" s="7"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="8"/>
+      <c r="X4" s="7"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1023,12 +1014,12 @@
         <v>20.100000000000001</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.016666666666666</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0824829046386887E-2</v>
+        <f>SQRT(STDEV(B5:G5)*STDEV(B5:G5) + 0.1*0.1)</f>
+        <v>0.10801234497346457</v>
       </c>
       <c r="J5" s="6">
         <v>1.34</v>
@@ -1040,10 +1031,11 @@
         <v>1.34</v>
       </c>
       <c r="M5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.34</v>
+      </c>
+      <c r="N5" s="17">
         <f t="shared" si="2"/>
-        <v>1.34</v>
-      </c>
-      <c r="N5" s="2">
         <v>0.01</v>
       </c>
       <c r="O5" s="2">
@@ -1052,7 +1044,7 @@
       </c>
       <c r="P5" s="1">
         <f t="shared" si="3"/>
-        <v>2.0395418341242412E-3</v>
+        <v>5.3961204816052244E-3</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="4"/>
@@ -1062,14 +1054,14 @@
         <f t="shared" si="5"/>
         <v>7.462686567164179E-3</v>
       </c>
-      <c r="U5" s="8"/>
+      <c r="U5" s="7"/>
       <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X5" s="8"/>
+      <c r="X5" s="7"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1094,12 +1086,12 @@
         <v>17</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17.016666666666666</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0824829046386887E-2</v>
+        <f>SQRT(STDEV(B6:G6)*STDEV(B6:G6) + 0.1*0.1)</f>
+        <v>0.10801234497346457</v>
       </c>
       <c r="J6" s="6">
         <v>0.97</v>
@@ -1111,12 +1103,12 @@
         <v>0.97</v>
       </c>
       <c r="M6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97000000000000008</v>
+      </c>
+      <c r="N6" s="17">
         <f t="shared" si="2"/>
-        <v>0.97000000000000008</v>
-      </c>
-      <c r="N6" s="2">
-        <f>_xlfn.STDEV.S(J6:L6)</f>
-        <v>1.3597399555105182E-16</v>
+        <v>0.01</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="6"/>
@@ -1124,7 +1116,7 @@
       </c>
       <c r="P6" s="1">
         <f>ABS(1/H6)*I6</f>
-        <v>2.3991084650178385E-3</v>
+        <v>6.3474443667070266E-3</v>
       </c>
       <c r="Q6" s="2">
         <f>LN(M6)</f>
@@ -1132,16 +1124,16 @@
       </c>
       <c r="R6" s="1">
         <f t="shared" si="5"/>
-        <v>1.4017937685675444E-16</v>
-      </c>
-      <c r="U6" s="8"/>
+        <v>1.0309278350515464E-2</v>
+      </c>
+      <c r="U6" s="7"/>
       <c r="V6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X6" s="8"/>
+      <c r="X6" s="7"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1166,12 +1158,12 @@
         <v>14.1</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="0"/>
-        <v>6.3245553203367361E-2</v>
+        <f>SQRT(STDEV(B7:G7)*STDEV(B7:G7) + 0.1*0.1)</f>
+        <v>0.11832159566199221</v>
       </c>
       <c r="J7" s="6">
         <v>0.66</v>
@@ -1183,10 +1175,11 @@
         <v>0.66</v>
       </c>
       <c r="M7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="N7" s="17">
         <f t="shared" si="2"/>
-        <v>0.66</v>
-      </c>
-      <c r="N7" s="2">
         <v>0.01</v>
       </c>
       <c r="O7" s="2">
@@ -1195,7 +1188,7 @@
       </c>
       <c r="P7" s="1">
         <f t="shared" si="3"/>
-        <v>4.5175395145262394E-3</v>
+        <v>8.4515425472851576E-3</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="4"/>
@@ -1205,7 +1198,7 @@
         <f t="shared" si="5"/>
         <v>1.5151515151515152E-2</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="7"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1230,11 +1223,12 @@
         <v>11</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I8" s="2">
-        <v>0.01</v>
+        <f>SQRT(STDEV(B8:G8)*STDEV(B8:G8) + 0.1*0.1)</f>
+        <v>0.1</v>
       </c>
       <c r="J8" s="6">
         <v>0.4</v>
@@ -1249,9 +1243,9 @@
         <f>AVERAGE(J8:L8)</f>
         <v>0.40000000000000008</v>
       </c>
-      <c r="N8" s="2">
-        <f>_xlfn.STDEV.S(J8:L8)</f>
-        <v>6.7986997775525911E-17</v>
+      <c r="N8" s="17">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="6"/>
@@ -1259,7 +1253,7 @@
       </c>
       <c r="P8" s="1">
         <f t="shared" si="3"/>
-        <v>9.0909090909090909E-4</v>
+        <v>9.0909090909090922E-3</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="4"/>
@@ -1267,9 +1261,9 @@
       </c>
       <c r="R8" s="1">
         <f t="shared" si="5"/>
-        <v>1.6996749443881474E-16</v>
-      </c>
-      <c r="X8" s="8"/>
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="X8" s="7"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1294,12 +1288,12 @@
         <v>8</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9833333333333334</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0824829046386159E-2</v>
+        <f>SQRT(STDEV(B9:G9)*STDEV(B9:G9) + 0.1*0.1)</f>
+        <v>0.10801234497346429</v>
       </c>
       <c r="J9" s="6">
         <v>0.21</v>
@@ -1311,10 +1305,11 @@
         <v>0.21</v>
       </c>
       <c r="M9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+      <c r="N9" s="17">
         <f t="shared" si="2"/>
-        <v>0.21</v>
-      </c>
-      <c r="N9" s="2">
         <v>0.01</v>
       </c>
       <c r="O9" s="2">
@@ -1323,7 +1318,7 @@
       </c>
       <c r="P9" s="1">
         <f t="shared" si="3"/>
-        <v>5.1137572918229009E-3</v>
+        <v>1.3529730059306591E-2</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="4"/>
@@ -1333,7 +1328,7 @@
         <f t="shared" si="5"/>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="X9" s="8"/>
+      <c r="X9" s="7"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1358,11 +1353,12 @@
         <v>5</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I10" s="2">
-        <v>0.01</v>
+        <f>SQRT(STDEV(B10:G10)*STDEV(B10:G10) + 0.1*0.1)</f>
+        <v>0.1</v>
       </c>
       <c r="J10" s="6">
         <v>0.08</v>
@@ -1374,10 +1370,11 @@
         <v>0.08</v>
       </c>
       <c r="M10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="N10" s="17">
         <f t="shared" si="2"/>
-        <v>0.08</v>
-      </c>
-      <c r="N10" s="2">
         <v>0.01</v>
       </c>
       <c r="O10" s="2">
@@ -1386,7 +1383,7 @@
       </c>
       <c r="P10" s="1">
         <f t="shared" si="3"/>
-        <v>2E-3</v>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="4"/>
@@ -1396,10 +1393,10 @@
         <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1424,11 +1421,12 @@
         <v>3</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I11" s="2">
-        <v>0.01</v>
+        <f>SQRT(STDEV(B11:G11)*STDEV(B11:G11) + 0.1*0.1)</f>
+        <v>0.1</v>
       </c>
       <c r="J11" s="6">
         <v>0.02</v>
@@ -1440,10 +1438,11 @@
         <v>0.02</v>
       </c>
       <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="N11" s="17">
         <f t="shared" si="2"/>
-        <v>0.02</v>
-      </c>
-      <c r="N11" s="7">
         <v>0.01</v>
       </c>
       <c r="O11" s="2">
@@ -1452,7 +1451,7 @@
       </c>
       <c r="P11" s="1">
         <f t="shared" si="3"/>
-        <v>3.3333333333333331E-3</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="4"/>
@@ -1462,10 +1461,10 @@
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12"/>
@@ -1477,7 +1476,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M4:N4 M8:N8 M10:M11" formulaRange="1"/>
+    <ignoredError sqref="M4 M8 M10:M11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1486,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A541D4-8B0E-48D8-9A1A-4668EF171BE1}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1498,7 @@
     <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
@@ -1509,38 +1508,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>62</v>
+      <c r="J1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>34</v>
@@ -1552,34 +1551,34 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>34.85</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>35.75</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>35.49</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>35.81</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>36.380000000000003</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>33.81</v>
       </c>
       <c r="H2" s="2">
         <f>AVERAGE(B2:G2)</f>
         <v>35.348333333333336</v>
       </c>
-      <c r="I2" s="2">
-        <f>_xlfn.STDEV.S(B2:G2)</f>
-        <v>0.90262764563615416</v>
+      <c r="I2" s="15">
+        <f>SQRT(STDEV(B2:G2)*STDEV(B2:G2) + 0.001*0.001)</f>
+        <v>0.90262819957425811</v>
       </c>
       <c r="J2" s="2">
         <f>LN(H2)</f>
@@ -1587,7 +1586,7 @@
       </c>
       <c r="K2" s="2">
         <f>ABS(1/J2)*I2</f>
-        <v>0.25317364301926198</v>
+        <v>0.25317379839066956</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1599,42 +1598,42 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>28.01</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>29.13</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>28.46</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>30.18</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>29.59</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>30.1</v>
       </c>
       <c r="H3" s="2">
         <f>AVERAGE(B3:G3)</f>
         <v>29.245000000000001</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I11" si="0">_xlfn.STDEV.S(B3:G3)</f>
-        <v>0.88078941864670424</v>
+      <c r="I3" s="15">
+        <f>SQRT(STDEV(B3:G3)*STDEV(B3:G3) + 0.001*0.001)</f>
+        <v>0.88078998631909933</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J11" si="1">LN(H3)</f>
+        <f t="shared" ref="J3:J11" si="0">LN(H3)</f>
         <v>3.375708618894989</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K11" si="2">ABS(1/J3)*I3</f>
-        <v>0.26091985952716013</v>
+        <f t="shared" ref="K3:K11" si="1">ABS(1/J3)*I3</f>
+        <v>0.26092002769108041</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1642,42 +1641,42 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>25.98</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>25.449000000000002</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>26.152999999999999</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>26.201000000000001</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>25.856999999999999</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>25.474</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H11" si="3">AVERAGE(B4:G4)</f>
+        <f t="shared" ref="H4:H10" si="2">AVERAGE(B4:G4)</f>
         <v>25.852333333333331</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="15">
+        <f>SQRT(STDEV(B4:G4)*STDEV(B4:G4) + 0.001*0.001)</f>
+        <v>0.32683584054792136</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>0.32683431072435815</v>
-      </c>
-      <c r="J4" s="2">
+        <v>3.2524008612264406</v>
+      </c>
+      <c r="K4" s="2">
         <f t="shared" si="1"/>
-        <v>3.2524008612264406</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.10049016854617143</v>
+        <v>0.10049063891364103</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1689,276 +1688,276 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>20.640999999999998</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>23.695</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>23.552</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>23.972000000000001</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>24.100999999999999</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>23.863</v>
       </c>
       <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>23.304000000000002</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" ref="I5:I11" si="3">SQRT(STDEV(B5:G5)*STDEV(B5:G5) + 0.001*0.001)</f>
+        <v>1.3190809679470026</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1486250196571337</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41893873030667927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12">
+        <v>21.285</v>
+      </c>
+      <c r="C6" s="12">
+        <v>18.411999999999999</v>
+      </c>
+      <c r="D6" s="12">
+        <v>20.992000000000001</v>
+      </c>
+      <c r="E6" s="12">
+        <v>19.792000000000002</v>
+      </c>
+      <c r="F6" s="12">
+        <v>19.581</v>
+      </c>
+      <c r="G6" s="12">
+        <v>21.376999999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>20.239833333333333</v>
+      </c>
+      <c r="I6" s="15">
         <f t="shared" si="3"/>
-        <v>23.304000000000002</v>
-      </c>
-      <c r="I5" s="2">
+        <v>1.1770192720030825</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>1.3190805888951598</v>
-      </c>
-      <c r="J5" s="2">
+        <v>3.0076526098662568</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>3.1486250196571337</v>
-      </c>
-      <c r="K5" s="2">
+        <v>0.39134149606972785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12">
+        <v>17.390999999999998</v>
+      </c>
+      <c r="C7" s="12">
+        <v>18.727</v>
+      </c>
+      <c r="D7" s="12">
+        <v>17.283999999999999</v>
+      </c>
+      <c r="E7" s="12">
+        <v>17.977</v>
+      </c>
+      <c r="F7" s="12">
+        <v>18.760999999999999</v>
+      </c>
+      <c r="G7" s="12">
+        <v>18.878</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
-        <v>0.41893860992021204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="13">
-        <v>21.285</v>
-      </c>
-      <c r="C6" s="13">
-        <v>18.411999999999999</v>
-      </c>
-      <c r="D6" s="13">
-        <v>20.992000000000001</v>
-      </c>
-      <c r="E6" s="13">
-        <v>19.792000000000002</v>
-      </c>
-      <c r="F6" s="13">
-        <v>19.581</v>
-      </c>
-      <c r="G6" s="13">
-        <v>21.376999999999999</v>
-      </c>
-      <c r="H6" s="2">
+        <v>18.169666666666664</v>
+      </c>
+      <c r="I7" s="15">
         <f t="shared" si="3"/>
-        <v>20.239833333333333</v>
-      </c>
-      <c r="I6" s="2">
+        <v>0.71970609742218217</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>1.1770188472011256</v>
-      </c>
-      <c r="J6" s="2">
+        <v>2.8997535369820526</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>3.0076526098662568</v>
-      </c>
-      <c r="K6" s="2">
+        <v>0.24819560981421321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="12">
+        <v>15.342000000000001</v>
+      </c>
+      <c r="C8" s="12">
+        <v>14.275</v>
+      </c>
+      <c r="D8" s="12">
+        <v>15.288</v>
+      </c>
+      <c r="E8" s="12">
+        <v>13.599</v>
+      </c>
+      <c r="F8" s="12">
+        <v>15.577</v>
+      </c>
+      <c r="G8" s="12">
+        <v>15.621</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>0.39134135482936133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="13">
-        <v>17.390999999999998</v>
-      </c>
-      <c r="C7" s="13">
-        <v>18.727</v>
-      </c>
-      <c r="D7" s="13">
-        <v>17.283999999999999</v>
-      </c>
-      <c r="E7" s="13">
-        <v>17.977</v>
-      </c>
-      <c r="F7" s="13">
-        <v>18.760999999999999</v>
-      </c>
-      <c r="G7" s="13">
-        <v>18.878</v>
-      </c>
-      <c r="H7" s="2">
+        <v>14.950333333333333</v>
+      </c>
+      <c r="I8" s="15">
         <f t="shared" si="3"/>
-        <v>18.169666666666664</v>
-      </c>
-      <c r="I7" s="2">
+        <v>0.8236635640033293</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>0.71970540269381578</v>
-      </c>
-      <c r="J7" s="2">
+        <v>2.7047335961321668</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>2.8997535369820526</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24819537023234614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13">
-        <v>15.342000000000001</v>
-      </c>
-      <c r="C8" s="13">
-        <v>14.275</v>
-      </c>
-      <c r="D8" s="13">
-        <v>15.288</v>
-      </c>
-      <c r="E8" s="13">
-        <v>13.599</v>
-      </c>
-      <c r="F8" s="13">
-        <v>15.577</v>
-      </c>
-      <c r="G8" s="13">
-        <v>15.621</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="3"/>
-        <v>14.950333333333333</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.82366295695913538</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7047335961321668</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="2"/>
-        <v>0.30452646358110569</v>
+        <v>0.30452668801880811</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>10.125999999999999</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>10.455</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>11.01</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>10.852</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>10.349</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>11.065</v>
       </c>
       <c r="H9" s="2">
         <f>AVERAGE(B9:G9)</f>
         <v>10.642833333333334</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="15">
+        <f t="shared" si="3"/>
+        <v>0.38614189965175577</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>0.38614060478880829</v>
-      </c>
-      <c r="J9" s="2">
+        <v>2.3648867391912329</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>2.3648867391912329</v>
-      </c>
-      <c r="K9" s="2">
+        <v>0.16328135011819314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="12">
+        <v>7.6029999999999998</v>
+      </c>
+      <c r="C10" s="12">
+        <v>7.4160000000000004</v>
+      </c>
+      <c r="D10" s="12">
+        <v>7.13</v>
+      </c>
+      <c r="E10" s="12">
+        <v>7.3310000000000004</v>
+      </c>
+      <c r="F10" s="12">
+        <v>7.7569999999999997</v>
+      </c>
+      <c r="G10" s="12">
+        <v>7.9729999999999999</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="2"/>
-        <v>0.16328080258121133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="13">
-        <v>7.6029999999999998</v>
-      </c>
-      <c r="C10" s="13">
-        <v>7.4160000000000004</v>
-      </c>
-      <c r="D10" s="13">
-        <v>7.13</v>
-      </c>
-      <c r="E10" s="13">
-        <v>7.3310000000000004</v>
-      </c>
-      <c r="F10" s="13">
-        <v>7.7569999999999997</v>
-      </c>
-      <c r="G10" s="13">
-        <v>7.9729999999999999</v>
-      </c>
-      <c r="H10" s="2">
+        <v>7.5350000000000001</v>
+      </c>
+      <c r="I10" s="15">
         <f t="shared" si="3"/>
-        <v>7.5350000000000001</v>
-      </c>
-      <c r="I10" s="2">
+        <v>0.3051422619041812</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>0.30514062331980629</v>
-      </c>
-      <c r="J10" s="2">
+        <v>2.019558832078459</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>2.019558832078459</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.15109271315744058</v>
+        <v>0.15109352451502467</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>3.0910000000000002</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>3.14</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>3.403</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>3.2909999999999999</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>2.952</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>2.8260000000000001</v>
       </c>
       <c r="H11" s="2">
         <f>AVERAGE(B11:G11)</f>
         <v>3.1171666666666664</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="15">
+        <f t="shared" si="3"/>
+        <v>0.21222056136639222</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>0.21221820531393307</v>
-      </c>
-      <c r="J11" s="2">
+        <v>1.136924469572808</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>1.136924469572808</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18665989781508766</v>
+        <v>0.18666197011850111</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1968,6 +1967,7 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
+      <c r="I12" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1976,614 +1976,577 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8E49ED-C56F-46B9-81BB-557F9F1DED55}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F24" sqref="A14:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="8" max="9" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="I1" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>29</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>29</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>29</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>29.1</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>29</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>29</v>
       </c>
       <c r="H2" s="3">
-        <f>AVERAGE(B2:G2)</f>
+        <f t="shared" ref="H2:H11" si="0">AVERAGE(B2:G2)</f>
         <v>29.016666666666666</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I9" si="1">STDEV(B2:G2)</f>
+        <v>4.0824829046386887E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>26</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>26</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>26</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>26.1</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>26.1</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>25.9</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H11" si="0">AVERAGE(B3:G3)</f>
+        <f t="shared" si="0"/>
         <v>26.016666666666666</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="I3" s="3">
+        <f t="shared" si="1"/>
+        <v>7.527726527090918E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>23</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>23</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>23</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>23</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>23</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>23</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="I4" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>20</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>20</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>20</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>20</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>20</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>20.100000000000001</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>20.016666666666666</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>4.0824829046386887E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>17</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>17</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>17.100000000000001</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>17</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>17</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>17</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>17.016666666666666</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="I6" s="3">
+        <f t="shared" si="1"/>
+        <v>4.0824829046386887E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>13.9</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>14</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>14</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>14</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>14</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>14.1</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>6.3245553203367361E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>11</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>11</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>11</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>11</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>11</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>11</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="I8" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>7.9</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>8</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>8</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>8</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>8</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>8</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>7.9833333333333334</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>4.0824829046386159E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>5</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>5</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>5</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>5</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>5</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>5</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="I10" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>3</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>3</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>3</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>3</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="I11" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="F14" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="13">
-        <v>34.85</v>
-      </c>
-      <c r="C15" s="13">
-        <v>35.75</v>
-      </c>
-      <c r="D15" s="13">
-        <v>35.49</v>
-      </c>
-      <c r="E15" s="13">
-        <v>35.81</v>
-      </c>
-      <c r="F15" s="13">
-        <v>36.380000000000003</v>
-      </c>
-      <c r="G15" s="13">
-        <v>33.81</v>
-      </c>
-      <c r="H15" s="2">
-        <f>AVERAGE(B15:G15)</f>
-        <v>35.348333333333336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="13">
-        <v>28.01</v>
-      </c>
-      <c r="C16" s="13">
-        <v>29.13</v>
-      </c>
-      <c r="D16" s="13">
-        <v>28.46</v>
-      </c>
-      <c r="E16" s="13">
-        <v>30.18</v>
-      </c>
-      <c r="F16" s="13">
-        <v>29.59</v>
-      </c>
-      <c r="G16" s="13">
-        <v>30.1</v>
-      </c>
-      <c r="H16" s="2">
-        <f>AVERAGE(B16:G16)</f>
-        <v>29.245000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="13">
-        <v>25.98</v>
-      </c>
-      <c r="C17" s="13">
-        <v>25.449000000000002</v>
-      </c>
-      <c r="D17" s="13">
-        <v>26.152999999999999</v>
-      </c>
-      <c r="E17" s="13">
-        <v>26.201000000000001</v>
-      </c>
-      <c r="F17" s="13">
-        <v>25.856999999999999</v>
-      </c>
-      <c r="G17" s="13">
-        <v>25.474</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" ref="H17:H24" si="1">AVERAGE(B17:G17)</f>
-        <v>25.852333333333331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="13">
-        <v>20.640999999999998</v>
-      </c>
-      <c r="C18" s="13">
-        <v>23.695</v>
-      </c>
-      <c r="D18" s="13">
-        <v>23.552</v>
-      </c>
-      <c r="E18" s="13">
-        <v>23.972000000000001</v>
-      </c>
-      <c r="F18" s="13">
-        <v>24.100999999999999</v>
-      </c>
-      <c r="G18" s="13">
-        <v>23.863</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="1"/>
-        <v>23.304000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="13">
-        <v>21.285</v>
-      </c>
-      <c r="C19" s="13">
-        <v>18.411999999999999</v>
-      </c>
-      <c r="D19" s="13">
-        <v>20.992000000000001</v>
-      </c>
-      <c r="E19" s="13">
-        <v>19.792000000000002</v>
-      </c>
-      <c r="F19" s="13">
-        <v>19.581</v>
-      </c>
-      <c r="G19" s="13">
-        <v>21.376999999999999</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="1"/>
-        <v>20.239833333333333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="13">
-        <v>17.390999999999998</v>
-      </c>
-      <c r="C20" s="13">
-        <v>18.727</v>
-      </c>
-      <c r="D20" s="13">
-        <v>17.283999999999999</v>
-      </c>
-      <c r="E20" s="13">
-        <v>17.977</v>
-      </c>
-      <c r="F20" s="13">
-        <v>18.760999999999999</v>
-      </c>
-      <c r="G20" s="13">
-        <v>18.878</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="1"/>
-        <v>18.169666666666664</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="13">
-        <v>15.342000000000001</v>
-      </c>
-      <c r="C21" s="13">
-        <v>14.275</v>
-      </c>
-      <c r="D21" s="13">
-        <v>15.288</v>
-      </c>
-      <c r="E21" s="13">
-        <v>13.599</v>
-      </c>
-      <c r="F21" s="13">
-        <v>15.577</v>
-      </c>
-      <c r="G21" s="13">
-        <v>15.621</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="1"/>
-        <v>14.950333333333333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="13">
-        <v>10.125999999999999</v>
-      </c>
-      <c r="C22" s="13">
-        <v>10.455</v>
-      </c>
-      <c r="D22" s="13">
-        <v>11.01</v>
-      </c>
-      <c r="E22" s="13">
-        <v>10.852</v>
-      </c>
-      <c r="F22" s="13">
-        <v>10.349</v>
-      </c>
-      <c r="G22" s="13">
-        <v>11.065</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="1"/>
-        <v>10.642833333333334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="13">
-        <v>7.6029999999999998</v>
-      </c>
-      <c r="C23" s="13">
-        <v>7.4160000000000004</v>
-      </c>
-      <c r="D23" s="13">
-        <v>7.13</v>
-      </c>
-      <c r="E23" s="13">
-        <v>7.3310000000000004</v>
-      </c>
-      <c r="F23" s="13">
-        <v>7.7569999999999997</v>
-      </c>
-      <c r="G23" s="13">
-        <v>7.9729999999999999</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>7.5350000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="13">
-        <v>3.0910000000000002</v>
-      </c>
-      <c r="C24" s="13">
-        <v>3.14</v>
-      </c>
-      <c r="D24" s="13">
-        <v>3.403</v>
-      </c>
-      <c r="E24" s="13">
-        <v>3.2909999999999999</v>
-      </c>
-      <c r="F24" s="13">
-        <v>2.952</v>
-      </c>
-      <c r="G24" s="13">
-        <v>2.8260000000000001</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="1"/>
-        <v>3.1171666666666664</v>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>3.3678703780000001</v>
+      </c>
+      <c r="B15" s="18">
+        <v>3.7224239999999998E-3</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1.028428232</v>
+      </c>
+      <c r="D15" s="18">
+        <v>4.1288460000000003E-3</v>
+      </c>
+      <c r="E15">
+        <v>3.5652512440000002</v>
+      </c>
+      <c r="F15">
+        <v>0.25317379800000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>3.2587373579999999</v>
+      </c>
+      <c r="B16" s="18">
+        <v>4.8110139999999997E-3</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.82417544300000001</v>
+      </c>
+      <c r="D16" s="18">
+        <v>4.3859650000000003E-3</v>
+      </c>
+      <c r="E16">
+        <v>3.3757086190000001</v>
+      </c>
+      <c r="F16">
+        <v>0.26092002800000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>3.1354942160000001</v>
+      </c>
+      <c r="B17" s="18">
+        <v>4.3478259999999999E-3</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.57097954699999998</v>
+      </c>
+      <c r="D17" s="18">
+        <v>5.6497179999999998E-3</v>
+      </c>
+      <c r="E17">
+        <v>3.2524008609999999</v>
+      </c>
+      <c r="F17">
+        <v>0.10049063900000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>2.9965652600000001</v>
+      </c>
+      <c r="B18" s="18">
+        <v>5.3961199999999999E-3</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.29266961400000002</v>
+      </c>
+      <c r="D18" s="18">
+        <v>7.462687E-3</v>
+      </c>
+      <c r="E18">
+        <v>3.1486250199999999</v>
+      </c>
+      <c r="F18">
+        <v>0.41893872999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>2.8341932559999998</v>
+      </c>
+      <c r="B19" s="18">
+        <v>6.3474439999999998E-3</v>
+      </c>
+      <c r="C19" s="18">
+        <v>-3.0459206999999999E-2</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1.0309278E-2</v>
+      </c>
+      <c r="E19">
+        <v>3.0076526100000001</v>
+      </c>
+      <c r="F19">
+        <v>0.39134149600000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>2.63905733</v>
+      </c>
+      <c r="B20" s="18">
+        <v>8.4515430000000006E-3</v>
+      </c>
+      <c r="C20" s="18">
+        <v>-0.41551544400000001</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1.5151515000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>2.899753537</v>
+      </c>
+      <c r="F20">
+        <v>0.24819561000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>2.397895273</v>
+      </c>
+      <c r="B21" s="18">
+        <v>9.0909089999999994E-3</v>
+      </c>
+      <c r="C21" s="18">
+        <v>-0.916290732</v>
+      </c>
+      <c r="D21" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E21">
+        <v>2.7047335960000001</v>
+      </c>
+      <c r="F21">
+        <v>0.30452668799999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>2.0773560350000002</v>
+      </c>
+      <c r="B22" s="18">
+        <v>1.352973E-2</v>
+      </c>
+      <c r="C22" s="18">
+        <v>-1.5606477480000001</v>
+      </c>
+      <c r="D22" s="18">
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="E22">
+        <v>2.3648867390000001</v>
+      </c>
+      <c r="F22">
+        <v>0.16328134999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>1.609437912</v>
+      </c>
+      <c r="B23" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="C23" s="18">
+        <v>-2.525728644</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0.125</v>
+      </c>
+      <c r="E23">
+        <v>2.019558832</v>
+      </c>
+      <c r="F23">
+        <v>0.15109352500000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>1.0986122890000001</v>
+      </c>
+      <c r="B24" s="18">
+        <v>3.3333333E-2</v>
+      </c>
+      <c r="C24" s="18">
+        <v>-3.912023005</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <v>1.1369244700000001</v>
+      </c>
+      <c r="F24">
+        <v>0.18666197000000001</v>
       </c>
     </row>
   </sheetData>

--- a/01_alluminio_frattale/raw_data/01_alluminio_frattale_raw.xlsx
+++ b/01_alluminio_frattale/raw_data/01_alluminio_frattale_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\[Università]\[Laurea Magistrale]\[Primo Anno]\Scientific data acquisition and processing\Data Analysis\Lab_Sc_data_acquisition\Lab_Sc_data_acquisition\01_alluminio_frattale\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2AD87D-3EF1-463B-9094-EB8AA15706CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5B63D7-A9EF-43F9-8DA6-77D656AF3F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F23CBE7-2062-4926-9ABF-02CDC9F0CDBD}"/>
+    <workbookView xWindow="3690" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{6F23CBE7-2062-4926-9ABF-02CDC9F0CDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Part I" sheetId="1" r:id="rId1"/>
@@ -214,8 +214,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -353,16 +353,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC81585-ECBD-463A-AE73-BC0CB2AFD19F}">
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:N11"/>
     </sheetView>
   </sheetViews>
@@ -806,7 +806,7 @@
         <v>29.016666666666666</v>
       </c>
       <c r="I2" s="2">
-        <f>SQRT(STDEV(B2:G2)*STDEV(B2:G2) + 0.1*0.1)</f>
+        <f t="shared" ref="I2:I11" si="0">SQRT(STDEV(B2:G2)*STDEV(B2:G2) + 0.1*0.1)</f>
         <v>0.10801234497346457</v>
       </c>
       <c r="J2" s="6">
@@ -874,11 +874,11 @@
         <v>25.9</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H11" si="0">AVERAGE(B3:G3)</f>
+        <f t="shared" ref="H3:H11" si="1">AVERAGE(B3:G3)</f>
         <v>26.016666666666666</v>
       </c>
       <c r="I3" s="2">
-        <f>SQRT(STDEV(B3:G3)*STDEV(B3:G3) + 0.1*0.1)</f>
+        <f t="shared" si="0"/>
         <v>0.12516655570345792</v>
       </c>
       <c r="J3" s="6">
@@ -891,11 +891,11 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M11" si="1">AVERAGE(J3:L3)</f>
+        <f t="shared" ref="M3:M11" si="2">AVERAGE(J3:L3)</f>
         <v>2.2799999999999998</v>
       </c>
       <c r="N3" s="17">
-        <f t="shared" ref="N3:N11" si="2">SQRT(STDEV(J3:L3)*STDEV(J3:L3) + 0.01*0.01)</f>
+        <f t="shared" ref="N3:N11" si="3">SQRT(STDEV(J3:L3)*STDEV(J3:L3) + 0.01*0.01)</f>
         <v>0.01</v>
       </c>
       <c r="O3" s="2">
@@ -903,15 +903,15 @@
         <v>3.2587373582933314</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P11" si="3">ABS(1/H3)*I3</f>
+        <f t="shared" ref="P3:P11" si="4">ABS(1/H3)*I3</f>
         <v>4.8110143127530272E-3</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q11" si="4">LN(M3)</f>
+        <f t="shared" ref="Q3:Q11" si="5">LN(M3)</f>
         <v>0.82417544296634937</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R11" si="5">ABS(1/M3)*N3</f>
+        <f t="shared" ref="R3:R11" si="6">ABS(1/M3)*N3</f>
         <v>4.3859649122807024E-3</v>
       </c>
       <c r="U3" s="7"/>
@@ -946,11 +946,11 @@
         <v>23</v>
       </c>
       <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="I4" s="2">
-        <f>SQRT(STDEV(B4:G4)*STDEV(B4:G4) + 0.1*0.1)</f>
         <v>0.1</v>
       </c>
       <c r="J4" s="6">
@@ -967,23 +967,23 @@
         <v>1.7700000000000002</v>
       </c>
       <c r="N4" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:O11" si="6">LN(H4)</f>
+        <f t="shared" ref="O4:O11" si="7">LN(H4)</f>
         <v>3.1354942159291497</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3478260869565218E-3</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57097954658573791</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.6497175141242929E-3</v>
       </c>
       <c r="U4" s="7"/>
@@ -1014,11 +1014,11 @@
         <v>20.100000000000001</v>
       </c>
       <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>20.016666666666666</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>20.016666666666666</v>
-      </c>
-      <c r="I5" s="2">
-        <f>SQRT(STDEV(B5:G5)*STDEV(B5:G5) + 0.1*0.1)</f>
         <v>0.10801234497346457</v>
       </c>
       <c r="J5" s="6">
@@ -1031,27 +1031,27 @@
         <v>1.34</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.34</v>
       </c>
       <c r="N5" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="O5" s="2">
+        <f t="shared" si="7"/>
+        <v>2.9965652598578827</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="4"/>
+        <v>5.3961204816052244E-3</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="5"/>
+        <v>0.29266961396282004</v>
+      </c>
+      <c r="R5" s="1">
         <f t="shared" si="6"/>
-        <v>2.9965652598578827</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="3"/>
-        <v>5.3961204816052244E-3</v>
-      </c>
-      <c r="Q5" s="2">
-        <f t="shared" si="4"/>
-        <v>0.29266961396282004</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="5"/>
         <v>7.462686567164179E-3</v>
       </c>
       <c r="U5" s="7"/>
@@ -1086,11 +1086,11 @@
         <v>17</v>
       </c>
       <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>17.016666666666666</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>17.016666666666666</v>
-      </c>
-      <c r="I6" s="2">
-        <f>SQRT(STDEV(B6:G6)*STDEV(B6:G6) + 0.1*0.1)</f>
         <v>0.10801234497346457</v>
       </c>
       <c r="J6" s="6">
@@ -1103,15 +1103,15 @@
         <v>0.97</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97000000000000008</v>
       </c>
       <c r="N6" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8341932559425649</v>
       </c>
       <c r="P6" s="1">
@@ -1123,7 +1123,7 @@
         <v>-3.0459207484708459E-2</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0309278350515464E-2</v>
       </c>
       <c r="U6" s="7"/>
@@ -1158,11 +1158,11 @@
         <v>14.1</v>
       </c>
       <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="I7" s="2">
-        <f>SQRT(STDEV(B7:G7)*STDEV(B7:G7) + 0.1*0.1)</f>
         <v>0.11832159566199221</v>
       </c>
       <c r="J7" s="6">
@@ -1175,27 +1175,27 @@
         <v>0.66</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66</v>
       </c>
       <c r="N7" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="O7" s="2">
+        <f t="shared" si="7"/>
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="4"/>
+        <v>8.4515425472851576E-3</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.41551544396166579</v>
+      </c>
+      <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>2.6390573296152584</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="3"/>
-        <v>8.4515425472851576E-3</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.41551544396166579</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="5"/>
         <v>1.5151515151515152E-2</v>
       </c>
       <c r="X7" s="7"/>
@@ -1223,11 +1223,11 @@
         <v>11</v>
       </c>
       <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="I8" s="2">
-        <f>SQRT(STDEV(B8:G8)*STDEV(B8:G8) + 0.1*0.1)</f>
         <v>0.1</v>
       </c>
       <c r="J8" s="6">
@@ -1244,23 +1244,23 @@
         <v>0.40000000000000008</v>
       </c>
       <c r="N8" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="O8" s="2">
+        <f t="shared" si="7"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.91629073187415488</v>
+      </c>
+      <c r="R8" s="1">
         <f t="shared" si="6"/>
-        <v>2.3978952727983707</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="3"/>
-        <v>9.0909090909090922E-3</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.91629073187415488</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="5"/>
         <v>2.4999999999999994E-2</v>
       </c>
       <c r="X8" s="7"/>
@@ -1288,11 +1288,11 @@
         <v>8</v>
       </c>
       <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9833333333333334</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>7.9833333333333334</v>
-      </c>
-      <c r="I9" s="2">
-        <f>SQRT(STDEV(B9:G9)*STDEV(B9:G9) + 0.1*0.1)</f>
         <v>0.10801234497346429</v>
       </c>
       <c r="J9" s="6">
@@ -1305,27 +1305,27 @@
         <v>0.21</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21</v>
       </c>
       <c r="N9" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="O9" s="2">
+        <f t="shared" si="7"/>
+        <v>2.0773560351888145</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3529730059306591E-2</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="5"/>
+        <v>-1.5606477482646683</v>
+      </c>
+      <c r="R9" s="1">
         <f t="shared" si="6"/>
-        <v>2.0773560351888145</v>
-      </c>
-      <c r="P9" s="1">
-        <f t="shared" si="3"/>
-        <v>1.3529730059306591E-2</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" si="4"/>
-        <v>-1.5606477482646683</v>
-      </c>
-      <c r="R9" s="1">
-        <f t="shared" si="5"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="X9" s="7"/>
@@ -1353,11 +1353,11 @@
         <v>5</v>
       </c>
       <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
-        <f>SQRT(STDEV(B10:G10)*STDEV(B10:G10) + 0.1*0.1)</f>
         <v>0.1</v>
       </c>
       <c r="J10" s="6">
@@ -1370,27 +1370,27 @@
         <v>0.08</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
       <c r="N10" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="O10" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="5"/>
+        <v>-2.5257286443082556</v>
+      </c>
+      <c r="R10" s="1">
         <f t="shared" si="6"/>
-        <v>1.6094379124341003</v>
-      </c>
-      <c r="P10" s="1">
-        <f t="shared" si="3"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" si="4"/>
-        <v>-2.5257286443082556</v>
-      </c>
-      <c r="R10" s="1">
-        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
       <c r="U10" s="7"/>
@@ -1421,11 +1421,11 @@
         <v>3</v>
       </c>
       <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I11" s="2">
-        <f>SQRT(STDEV(B11:G11)*STDEV(B11:G11) + 0.1*0.1)</f>
         <v>0.1</v>
       </c>
       <c r="J11" s="6">
@@ -1438,27 +1438,27 @@
         <v>0.02</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="N11" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="O11" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="5"/>
+        <v>-3.912023005428146</v>
+      </c>
+      <c r="R11" s="1">
         <f t="shared" si="6"/>
-        <v>1.0986122886681098</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" si="4"/>
-        <v>-3.912023005428146</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U11" s="7"/>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A541D4-8B0E-48D8-9A1A-4668EF171BE1}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/01_alluminio_frattale/raw_data/01_alluminio_frattale_raw.xlsx
+++ b/01_alluminio_frattale/raw_data/01_alluminio_frattale_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\[Università]\[Laurea Magistrale]\[Primo Anno]\Scientific data acquisition and processing\Data Analysis\Lab_Sc_data_acquisition\Lab_Sc_data_acquisition\01_alluminio_frattale\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5B63D7-A9EF-43F9-8DA6-77D656AF3F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CF72E7-88BB-432B-AC87-61AD53F29ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{6F23CBE7-2062-4926-9ABF-02CDC9F0CDBD}"/>
+    <workbookView xWindow="3690" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{6F23CBE7-2062-4926-9ABF-02CDC9F0CDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Part I" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC81585-ECBD-463A-AE73-BC0CB2AFD19F}">
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2:N11"/>
     </sheetView>
   </sheetViews>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A541D4-8B0E-48D8-9A1A-4668EF171BE1}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,9 +1499,10 @@
     <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.85546875" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
@@ -1577,8 +1578,8 @@
         <v>35.348333333333336</v>
       </c>
       <c r="I2" s="15">
-        <f>SQRT(STDEV(B2:G2)*STDEV(B2:G2) + 0.001*0.001)</f>
-        <v>0.90262819957425811</v>
+        <f>SQRT(STDEV(B2:G2)*STDEV(B2:G2) + 0.01*0.01)</f>
+        <v>0.90268303776390224</v>
       </c>
       <c r="J2" s="2">
         <f>LN(H2)</f>
@@ -1586,7 +1587,11 @@
       </c>
       <c r="K2" s="2">
         <f>ABS(1/J2)*I2</f>
-        <v>0.25317379839066956</v>
+        <v>0.25318917968805821</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.S(B2:G2)</f>
+        <v>0.90262764563615416</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1624,8 +1629,8 @@
         <v>29.245000000000001</v>
       </c>
       <c r="I3" s="15">
-        <f>SQRT(STDEV(B3:G3)*STDEV(B3:G3) + 0.001*0.001)</f>
-        <v>0.88078998631909933</v>
+        <f>SQRT(STDEV(B3:G3)*STDEV(B3:G3) + 0.01*0.01)</f>
+        <v>0.8808461840752897</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J11" si="0">LN(H3)</f>
@@ -1633,7 +1638,11 @@
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:K11" si="1">ABS(1/J3)*I3</f>
-        <v>0.26092002769108041</v>
+        <v>0.26093667538273124</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="2">_xlfn.STDEV.S(B3:G3)</f>
+        <v>0.88078941864670424</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1663,7 +1672,7 @@
         <v>25.474</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H10" si="2">AVERAGE(B4:G4)</f>
+        <f t="shared" ref="H4:H10" si="3">AVERAGE(B4:G4)</f>
         <v>25.852333333333331</v>
       </c>
       <c r="I4" s="15">
@@ -1677,6 +1686,10 @@
       <c r="K4" s="2">
         <f t="shared" si="1"/>
         <v>0.10049063891364103</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.32683431072435815</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1710,11 +1723,11 @@
         <v>23.863</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.304000000000002</v>
       </c>
       <c r="I5" s="15">
-        <f t="shared" ref="I5:I11" si="3">SQRT(STDEV(B5:G5)*STDEV(B5:G5) + 0.001*0.001)</f>
+        <f t="shared" ref="I5:I11" si="4">SQRT(STDEV(B5:G5)*STDEV(B5:G5) + 0.001*0.001)</f>
         <v>1.3190809679470026</v>
       </c>
       <c r="J5" s="2">
@@ -1725,6 +1738,10 @@
         <f t="shared" si="1"/>
         <v>0.41893873030667927</v>
       </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>1.3190805888951598</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1749,11 +1766,11 @@
         <v>21.376999999999999</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.239833333333333</v>
       </c>
       <c r="I6" s="15">
-        <f t="shared" si="3"/>
+        <f>SQRT(STDEV(B6:G6)*STDEV(B6:G6) + 0.001*0.001)</f>
         <v>1.1770192720030825</v>
       </c>
       <c r="J6" s="2">
@@ -1764,6 +1781,10 @@
         <f t="shared" si="1"/>
         <v>0.39134149606972785</v>
       </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>1.1770188472011256</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -1788,11 +1809,11 @@
         <v>18.878</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.169666666666664</v>
       </c>
       <c r="I7" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.71970609742218217</v>
       </c>
       <c r="J7" s="2">
@@ -1803,6 +1824,10 @@
         <f t="shared" si="1"/>
         <v>0.24819560981421321</v>
       </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.71970540269381578</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -1827,11 +1852,11 @@
         <v>15.621</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.950333333333333</v>
       </c>
       <c r="I8" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8236635640033293</v>
       </c>
       <c r="J8" s="2">
@@ -1842,6 +1867,10 @@
         <f t="shared" si="1"/>
         <v>0.30452668801880811</v>
       </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.82366295695913538</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -1870,7 +1899,7 @@
         <v>10.642833333333334</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="3"/>
+        <f>SQRT(STDEV(B9:G9)*STDEV(B9:G9) + 0.001*0.001)</f>
         <v>0.38614189965175577</v>
       </c>
       <c r="J9" s="2">
@@ -1881,6 +1910,10 @@
         <f t="shared" si="1"/>
         <v>0.16328135011819314</v>
       </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.38614060478880829</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -1905,11 +1938,11 @@
         <v>7.9729999999999999</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5350000000000001</v>
       </c>
       <c r="I10" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.3051422619041812</v>
       </c>
       <c r="J10" s="2">
@@ -1920,6 +1953,10 @@
         <f t="shared" si="1"/>
         <v>0.15109352451502467</v>
       </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.30514062331980629</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1948,7 +1985,7 @@
         <v>3.1171666666666664</v>
       </c>
       <c r="I11" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21222056136639222</v>
       </c>
       <c r="J11" s="2">
@@ -1958,6 +1995,10 @@
       <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>0.18666197011850111</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.21221820531393307</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1976,10 +2017,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8E49ED-C56F-46B9-81BB-557F9F1DED55}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="A14:F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,7 +2035,7 @@
     <col min="8" max="9" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2064,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -2053,8 +2094,12 @@
         <f t="shared" ref="I2:I9" si="1">STDEV(B2:G2)</f>
         <v>4.0824829046386887E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>_xlfn.STDEV.S(B2:H2)</f>
+        <v>3.7267799624997024E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
@@ -2084,8 +2129,12 @@
         <f t="shared" si="1"/>
         <v>7.527726527090918E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="2">_xlfn.STDEV.S(B3:H3)</f>
+        <v>6.8718427093628659E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -2114,8 +2163,12 @@
       <c r="I4" s="3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -2145,8 +2198,12 @@
         <f t="shared" si="1"/>
         <v>4.0824829046386887E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>3.7267799624997024E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
@@ -2176,8 +2233,12 @@
         <f t="shared" si="1"/>
         <v>4.0824829046386887E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>3.7267799624997024E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -2207,8 +2268,12 @@
         <f t="shared" si="1"/>
         <v>6.3245553203367361E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>5.7735026918962373E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
@@ -2237,8 +2302,12 @@
       <c r="I8" s="3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
@@ -2268,8 +2337,12 @@
         <f t="shared" si="1"/>
         <v>4.0824829046386159E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>3.7267799624996364E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
@@ -2298,8 +2371,12 @@
       <c r="I10" s="3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
@@ -2328,8 +2405,12 @@
       <c r="I11" s="3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>41</v>
       </c>
@@ -2349,7 +2430,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>3.3678703780000001</v>
       </c>
@@ -2369,7 +2450,7 @@
         <v>0.25317379800000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>3.2587373579999999</v>
       </c>
